--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value321.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value321.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6803834140594933</v>
+        <v>1.160476446151733</v>
       </c>
       <c r="B1">
-        <v>0.9153623274449096</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>1.499320884966867</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>5.323625934143507</v>
+        <v>1.709455847740173</v>
       </c>
       <c r="E1">
-        <v>2.159691245699984</v>
+        <v>1.117764949798584</v>
       </c>
     </row>
   </sheetData>
